--- a/files/Awards Category.xlsx
+++ b/files/Awards Category.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>id.</t>
-  </si>
-  <si>
-    <t>EventId.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Event ID</t>
   </si>
   <si>
     <t>Category Name</t>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>Environmental Initiatives</t>
+  </si>
+  <si>
+    <t>Cateory A</t>
+  </si>
+  <si>
+    <t>Cateory prefix here</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belonging Group A</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -479,6 +488,259 @@
         <v>45640.77083333333</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45640.77083333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/files/Awards Category.xlsx
+++ b/files/Awards Category.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>id.</t>
-  </si>
-  <si>
-    <t>EventId.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Event ID</t>
   </si>
   <si>
     <t>Category Name</t>
@@ -34,13 +34,31 @@
     <t>Closing Date</t>
   </si>
   <si>
-    <t>Sustainability</t>
-  </si>
-  <si>
-    <t>SUS</t>
-  </si>
-  <si>
-    <t>Environmental Initiatives</t>
+    <t>test1111</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>hfhhf</t>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>belongs to group Awards</t>
+  </si>
+  <si>
+    <t>Best Innovation Award</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Innovation Group</t>
   </si>
 </sst>
 </file>
@@ -422,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -458,10 +476,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -473,10 +491,148 @@
         <v>9</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45637.77083333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2">
-        <v>45640.77083333333</v>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45637.77083333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45637.77083333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45637.77083333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45637.77083333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45637.77083333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45637.77083333333</v>
       </c>
     </row>
   </sheetData>
